--- a/RegressionTests/NeuralNetClassifier_Unit_Test_1/expected_aptrans_HiddenColumn.xlsx
+++ b/RegressionTests/NeuralNetClassifier_Unit_Test_1/expected_aptrans_HiddenColumn.xlsx
@@ -1031,14 +1031,6 @@
       </bottom>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
-    </border>
-    <border>
       <left style="thin">
         <color auto="1"/>
       </left>
@@ -1051,6 +1043,14 @@
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
     </border>
   </borders>
   <cellStyleXfs count="20">
@@ -1078,7 +1078,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="111">
+  <cellXfs count="112">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment/>
     </xf>
@@ -1302,11 +1302,14 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -5255,14 +5258,14 @@
         <v>347.08</v>
       </c>
       <c r="F2" s="106">
-        <v>625.33</v>
+        <v>173.54</v>
       </c>
       <c r="G2" s="106" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="30">
-      <c r="A3" s="109" t="s">
+      <c r="A3" s="110" t="s">
         <v>124</v>
       </c>
       <c r="B3" s="106" t="s">
@@ -5278,14 +5281,14 @@
         <v>710.0</v>
       </c>
       <c r="F3" s="106">
-        <v>1355.0</v>
+        <v>355.0</v>
       </c>
       <c r="G3" s="106" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="30">
-      <c r="A4" s="109" t="s">
+      <c r="A4" s="110" t="s">
         <v>126</v>
       </c>
       <c r="B4" s="106" t="s">
@@ -5301,14 +5304,14 @@
         <v>213.75</v>
       </c>
       <c r="F4" s="106">
-        <v>373.12</v>
+        <v>106.88</v>
       </c>
       <c r="G4" s="106" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="30">
-      <c r="A5" s="109" t="s">
+      <c r="A5" s="110" t="s">
         <v>128</v>
       </c>
       <c r="B5" s="106" t="s">
@@ -5324,11 +5327,11 @@
         <v>1791.06</v>
       </c>
       <c r="F5" s="106">
-        <v>3333.03</v>
+        <v>895.53</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="30">
-      <c r="A6" s="109" t="s">
+      <c r="A6" s="110" t="s">
         <v>130</v>
       </c>
       <c r="B6" s="106" t="s">
@@ -5344,14 +5347,14 @@
         <v>410.0</v>
       </c>
       <c r="F6" s="106">
-        <v>723.33</v>
+        <v>205.0</v>
       </c>
       <c r="G6" s="106" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="30">
-      <c r="A7" s="109" t="s">
+      <c r="A7" s="110" t="s">
         <v>132</v>
       </c>
       <c r="B7" s="106" t="s">
@@ -5367,14 +5370,14 @@
         <v>254.17</v>
       </c>
       <c r="F7" s="106">
-        <v>444.38</v>
+        <v>127.08</v>
       </c>
       <c r="G7" s="106" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="30">
-      <c r="A8" s="109" t="s">
+      <c r="A8" s="110" t="s">
         <v>134</v>
       </c>
       <c r="B8" s="106" t="s">
@@ -5390,14 +5393,14 @@
         <v>1170.83</v>
       </c>
       <c r="F8" s="106">
-        <v>2056.67</v>
+        <v>585.42</v>
       </c>
       <c r="G8" s="106" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="30">
-      <c r="A9" s="109" t="s">
+      <c r="A9" s="110" t="s">
         <v>136</v>
       </c>
       <c r="B9" s="106" t="s">
@@ -5413,14 +5416,14 @@
         <v>100.0</v>
       </c>
       <c r="F9" s="106">
-        <v>200.0</v>
+        <v>50.0</v>
       </c>
       <c r="G9" s="106" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="30">
-      <c r="A10" s="109" t="s">
+      <c r="A10" s="110" t="s">
         <v>137</v>
       </c>
       <c r="B10" s="106" t="s">
@@ -5436,14 +5439,14 @@
         <v>950.0</v>
       </c>
       <c r="F10" s="106">
-        <v>1899.17</v>
+        <v>475.0</v>
       </c>
       <c r="G10" s="106" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="30">
-      <c r="A11" s="109" t="s">
+      <c r="A11" s="110" t="s">
         <v>168</v>
       </c>
       <c r="B11" s="106" t="s">
@@ -5459,14 +5462,14 @@
         <v>866.67</v>
       </c>
       <c r="F11" s="106">
-        <v>1708.33</v>
+        <v>433.33</v>
       </c>
       <c r="G11" s="106" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="30">
-      <c r="A12" s="109" t="s">
+      <c r="A12" s="110" t="s">
         <v>169</v>
       </c>
       <c r="B12" s="106" t="s">
@@ -5482,14 +5485,14 @@
         <v>1000.0</v>
       </c>
       <c r="F12" s="106">
-        <v>1000.0</v>
+        <v>500.0</v>
       </c>
       <c r="G12" s="106" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="30">
-      <c r="A13" s="109" t="s">
+      <c r="A13" s="110" t="s">
         <v>171</v>
       </c>
       <c r="B13" s="106" t="s">
@@ -5505,7 +5508,7 @@
         <v>733.0</v>
       </c>
       <c r="F13" s="106">
-        <v>733.0</v>
+        <v>366.5</v>
       </c>
       <c r="G13" s="106" t="s">
         <v>123</v>
@@ -10621,14 +10624,14 @@
         <v>347.08</v>
       </c>
       <c r="F2" s="106">
-        <v>798.88</v>
+        <v>173.54</v>
       </c>
       <c r="G2" s="106" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="30">
-      <c r="A3" s="109" t="s">
+      <c r="A3" s="110" t="s">
         <v>124</v>
       </c>
       <c r="B3" s="106" t="s">
@@ -10644,14 +10647,14 @@
         <v>710.0</v>
       </c>
       <c r="F3" s="106">
-        <v>1710.0</v>
+        <v>355.0</v>
       </c>
       <c r="G3" s="106" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="30">
-      <c r="A4" s="109" t="s">
+      <c r="A4" s="110" t="s">
         <v>126</v>
       </c>
       <c r="B4" s="106" t="s">
@@ -10667,14 +10670,14 @@
         <v>213.75</v>
       </c>
       <c r="F4" s="106">
-        <v>480.0</v>
+        <v>106.88</v>
       </c>
       <c r="G4" s="106" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="30">
-      <c r="A5" s="109" t="s">
+      <c r="A5" s="110" t="s">
         <v>128</v>
       </c>
       <c r="B5" s="106" t="s">
@@ -10690,11 +10693,11 @@
         <v>1596.82</v>
       </c>
       <c r="F5" s="106">
-        <v>4131.44</v>
+        <v>798.41</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="30">
-      <c r="A6" s="109" t="s">
+      <c r="A6" s="110" t="s">
         <v>130</v>
       </c>
       <c r="B6" s="106" t="s">
@@ -10710,14 +10713,14 @@
         <v>410.0</v>
       </c>
       <c r="F6" s="106">
-        <v>928.33</v>
+        <v>205.0</v>
       </c>
       <c r="G6" s="106" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="30">
-      <c r="A7" s="109" t="s">
+      <c r="A7" s="110" t="s">
         <v>132</v>
       </c>
       <c r="B7" s="106" t="s">
@@ -10733,14 +10736,14 @@
         <v>0.0</v>
       </c>
       <c r="F7" s="106">
-        <v>317.29</v>
+        <v>0.0</v>
       </c>
       <c r="G7" s="106" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="30">
-      <c r="A8" s="109" t="s">
+      <c r="A8" s="110" t="s">
         <v>134</v>
       </c>
       <c r="B8" s="106" t="s">
@@ -10756,14 +10759,14 @@
         <v>1170.83</v>
       </c>
       <c r="F8" s="106">
-        <v>2642.08</v>
+        <v>585.42</v>
       </c>
       <c r="G8" s="106" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="30">
-      <c r="A9" s="109" t="s">
+      <c r="A9" s="110" t="s">
         <v>136</v>
       </c>
       <c r="B9" s="106" t="s">
@@ -10779,14 +10782,14 @@
         <v>100.0</v>
       </c>
       <c r="F9" s="106">
-        <v>250.0</v>
+        <v>50.0</v>
       </c>
       <c r="G9" s="106" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="30">
-      <c r="A10" s="109" t="s">
+      <c r="A10" s="110" t="s">
         <v>137</v>
       </c>
       <c r="B10" s="106" t="s">
@@ -10802,14 +10805,14 @@
         <v>950.0</v>
       </c>
       <c r="F10" s="106">
-        <v>2374.17</v>
+        <v>475.0</v>
       </c>
       <c r="G10" s="106" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="30">
-      <c r="A11" s="109" t="s">
+      <c r="A11" s="110" t="s">
         <v>168</v>
       </c>
       <c r="B11" s="106" t="s">
@@ -10825,14 +10828,14 @@
         <v>866.67</v>
       </c>
       <c r="F11" s="106">
-        <v>2141.67</v>
+        <v>433.33</v>
       </c>
       <c r="G11" s="106" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="30">
-      <c r="A12" s="109" t="s">
+      <c r="A12" s="110" t="s">
         <v>169</v>
       </c>
       <c r="B12" s="106" t="s">
@@ -10848,14 +10851,14 @@
         <v>1000.0</v>
       </c>
       <c r="F12" s="106">
-        <v>1500.0</v>
+        <v>500.0</v>
       </c>
       <c r="G12" s="106" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="30">
-      <c r="A13" s="109" t="s">
+      <c r="A13" s="110" t="s">
         <v>171</v>
       </c>
       <c r="B13" s="106" t="s">
@@ -10871,14 +10874,14 @@
         <v>733.0</v>
       </c>
       <c r="F13" s="106">
-        <v>1099.5</v>
+        <v>366.5</v>
       </c>
       <c r="G13" s="106" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="30">
-      <c r="A14" s="109" t="s">
+      <c r="A14" s="110" t="s">
         <v>173</v>
       </c>
       <c r="B14" s="106" t="s">
@@ -16007,14 +16010,14 @@
         <v>347.08</v>
       </c>
       <c r="F2" s="106">
-        <v>972.42</v>
+        <v>173.54</v>
       </c>
       <c r="G2" s="106" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="30">
-      <c r="A3" s="109" t="s">
+      <c r="A3" s="110" t="s">
         <v>124</v>
       </c>
       <c r="B3" s="106" t="s">
@@ -16030,14 +16033,14 @@
         <v>710.0</v>
       </c>
       <c r="F3" s="106">
-        <v>2065.0</v>
+        <v>355.0</v>
       </c>
       <c r="G3" s="106" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="30">
-      <c r="A4" s="109" t="s">
+      <c r="A4" s="110" t="s">
         <v>126</v>
       </c>
       <c r="B4" s="106" t="s">
@@ -16053,14 +16056,14 @@
         <v>213.75</v>
       </c>
       <c r="F4" s="106">
-        <v>586.88</v>
+        <v>106.88</v>
       </c>
       <c r="G4" s="106" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="30">
-      <c r="A5" s="109" t="s">
+      <c r="A5" s="110" t="s">
         <v>128</v>
       </c>
       <c r="B5" s="106" t="s">
@@ -16076,11 +16079,11 @@
         <v>1596.82</v>
       </c>
       <c r="F5" s="106">
-        <v>4400.0</v>
+        <v>268.56</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="30">
-      <c r="A6" s="109" t="s">
+      <c r="A6" s="110" t="s">
         <v>130</v>
       </c>
       <c r="B6" s="106" t="s">
@@ -16096,14 +16099,14 @@
         <v>410.0</v>
       </c>
       <c r="F6" s="106">
-        <v>1133.33</v>
+        <v>205.0</v>
       </c>
       <c r="G6" s="106" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="30">
-      <c r="A7" s="109" t="s">
+      <c r="A7" s="110" t="s">
         <v>132</v>
       </c>
       <c r="B7" s="106" t="s">
@@ -16119,14 +16122,14 @@
         <v>0.0</v>
       </c>
       <c r="F7" s="106">
-        <v>317.29</v>
+        <v>0.0</v>
       </c>
       <c r="G7" s="106" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="30">
-      <c r="A8" s="109" t="s">
+      <c r="A8" s="110" t="s">
         <v>134</v>
       </c>
       <c r="B8" s="106" t="s">
@@ -16142,14 +16145,14 @@
         <v>1170.83</v>
       </c>
       <c r="F8" s="106">
-        <v>3227.5</v>
+        <v>585.42</v>
       </c>
       <c r="G8" s="106" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="30">
-      <c r="A9" s="109" t="s">
+      <c r="A9" s="110" t="s">
         <v>136</v>
       </c>
       <c r="B9" s="106" t="s">
@@ -16165,14 +16168,14 @@
         <v>100.0</v>
       </c>
       <c r="F9" s="106">
-        <v>300.0</v>
+        <v>50.0</v>
       </c>
       <c r="G9" s="106" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="30">
-      <c r="A10" s="109" t="s">
+      <c r="A10" s="110" t="s">
         <v>137</v>
       </c>
       <c r="B10" s="106" t="s">
@@ -16188,14 +16191,14 @@
         <v>950.0</v>
       </c>
       <c r="F10" s="106">
-        <v>2849.17</v>
+        <v>475.0</v>
       </c>
       <c r="G10" s="106" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="30">
-      <c r="A11" s="109" t="s">
+      <c r="A11" s="110" t="s">
         <v>168</v>
       </c>
       <c r="B11" s="106" t="s">
@@ -16211,14 +16214,14 @@
         <v>866.67</v>
       </c>
       <c r="F11" s="106">
-        <v>2575.0</v>
+        <v>433.33</v>
       </c>
       <c r="G11" s="106" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="30">
-      <c r="A12" s="109" t="s">
+      <c r="A12" s="110" t="s">
         <v>169</v>
       </c>
       <c r="B12" s="106" t="s">
@@ -16234,14 +16237,14 @@
         <v>1000.0</v>
       </c>
       <c r="F12" s="106">
-        <v>2000.0</v>
+        <v>500.0</v>
       </c>
       <c r="G12" s="106" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="30">
-      <c r="A13" s="109" t="s">
+      <c r="A13" s="110" t="s">
         <v>171</v>
       </c>
       <c r="B13" s="106" t="s">
@@ -16257,14 +16260,14 @@
         <v>733.0</v>
       </c>
       <c r="F13" s="106">
-        <v>1466.0</v>
+        <v>366.5</v>
       </c>
       <c r="G13" s="106" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="30">
-      <c r="A14" s="109" t="s">
+      <c r="A14" s="110" t="s">
         <v>174</v>
       </c>
       <c r="B14" s="106" t="s">
@@ -16280,7 +16283,7 @@
         <v>150.0</v>
       </c>
       <c r="F14" s="106">
-        <v>150.0</v>
+        <v>75.0</v>
       </c>
       <c r="G14" s="106" t="s">
         <v>123</v>
@@ -21394,14 +21397,14 @@
         <v>347.08</v>
       </c>
       <c r="F2" s="106">
-        <v>1145.96</v>
+        <v>173.54</v>
       </c>
       <c r="G2" s="106" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="30">
-      <c r="A3" s="109" t="s">
+      <c r="A3" s="110" t="s">
         <v>124</v>
       </c>
       <c r="B3" s="106" t="s">
@@ -21417,14 +21420,14 @@
         <v>710.0</v>
       </c>
       <c r="F3" s="106">
-        <v>2420.0</v>
+        <v>355.0</v>
       </c>
       <c r="G3" s="106" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="30">
-      <c r="A4" s="109" t="s">
+      <c r="A4" s="110" t="s">
         <v>126</v>
       </c>
       <c r="B4" s="106" t="s">
@@ -21440,14 +21443,14 @@
         <v>213.75</v>
       </c>
       <c r="F4" s="106">
-        <v>693.75</v>
+        <v>106.88</v>
       </c>
       <c r="G4" s="106" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="30">
-      <c r="A5" s="109" t="s">
+      <c r="A5" s="110" t="s">
         <v>128</v>
       </c>
       <c r="B5" s="106" t="s">
@@ -21463,11 +21466,11 @@
         <v>1596.82</v>
       </c>
       <c r="F5" s="106">
-        <v>4400.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="30">
-      <c r="A6" s="109" t="s">
+      <c r="A6" s="110" t="s">
         <v>130</v>
       </c>
       <c r="B6" s="106" t="s">
@@ -21483,14 +21486,14 @@
         <v>410.0</v>
       </c>
       <c r="F6" s="106">
-        <v>1338.33</v>
+        <v>205.0</v>
       </c>
       <c r="G6" s="106" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="30">
-      <c r="A7" s="109" t="s">
+      <c r="A7" s="110" t="s">
         <v>132</v>
       </c>
       <c r="B7" s="106" t="s">
@@ -21506,14 +21509,14 @@
         <v>0.0</v>
       </c>
       <c r="F7" s="106">
-        <v>317.29</v>
+        <v>0.0</v>
       </c>
       <c r="G7" s="106" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="30">
-      <c r="A8" s="109" t="s">
+      <c r="A8" s="110" t="s">
         <v>134</v>
       </c>
       <c r="B8" s="106" t="s">
@@ -21529,14 +21532,14 @@
         <v>1170.83</v>
       </c>
       <c r="F8" s="106">
-        <v>3812.92</v>
+        <v>585.42</v>
       </c>
       <c r="G8" s="106" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="30">
-      <c r="A9" s="109" t="s">
+      <c r="A9" s="110" t="s">
         <v>136</v>
       </c>
       <c r="B9" s="106" t="s">
@@ -21552,14 +21555,14 @@
         <v>100.0</v>
       </c>
       <c r="F9" s="106">
-        <v>350.0</v>
+        <v>50.0</v>
       </c>
       <c r="G9" s="106" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="30">
-      <c r="A10" s="109" t="s">
+      <c r="A10" s="110" t="s">
         <v>137</v>
       </c>
       <c r="B10" s="106" t="s">
@@ -21575,14 +21578,14 @@
         <v>950.0</v>
       </c>
       <c r="F10" s="106">
-        <v>3324.17</v>
+        <v>475.0</v>
       </c>
       <c r="G10" s="106" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="30">
-      <c r="A11" s="109" t="s">
+      <c r="A11" s="110" t="s">
         <v>168</v>
       </c>
       <c r="B11" s="106" t="s">
@@ -21598,14 +21601,14 @@
         <v>866.67</v>
       </c>
       <c r="F11" s="106">
-        <v>3008.33</v>
+        <v>433.33</v>
       </c>
       <c r="G11" s="106" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="30">
-      <c r="A12" s="109" t="s">
+      <c r="A12" s="110" t="s">
         <v>169</v>
       </c>
       <c r="B12" s="106" t="s">
@@ -21621,14 +21624,14 @@
         <v>1000.0</v>
       </c>
       <c r="F12" s="106">
-        <v>2500.0</v>
+        <v>500.0</v>
       </c>
       <c r="G12" s="106" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="30">
-      <c r="A13" s="109" t="s">
+      <c r="A13" s="110" t="s">
         <v>171</v>
       </c>
       <c r="B13" s="106" t="s">
@@ -21644,14 +21647,14 @@
         <v>733.0</v>
       </c>
       <c r="F13" s="106">
-        <v>1832.5</v>
+        <v>366.5</v>
       </c>
       <c r="G13" s="106" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="30">
-      <c r="A14" s="109" t="s">
+      <c r="A14" s="110" t="s">
         <v>174</v>
       </c>
       <c r="B14" s="106" t="s">
@@ -21667,7 +21670,7 @@
         <v>150.0</v>
       </c>
       <c r="F14" s="106">
-        <v>225.0</v>
+        <v>75.0</v>
       </c>
       <c r="G14" s="106" t="s">
         <v>123</v>
@@ -26782,14 +26785,14 @@
         <v>347.08</v>
       </c>
       <c r="F2" s="106">
-        <v>1319.5</v>
+        <v>173.54</v>
       </c>
       <c r="G2" s="106" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="30">
-      <c r="A3" s="109" t="s">
+      <c r="A3" s="110" t="s">
         <v>124</v>
       </c>
       <c r="B3" s="106" t="s">
@@ -26805,14 +26808,14 @@
         <v>710.0</v>
       </c>
       <c r="F3" s="106">
-        <v>2775.0</v>
+        <v>355.0</v>
       </c>
       <c r="G3" s="106" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="30">
-      <c r="A4" s="109" t="s">
+      <c r="A4" s="110" t="s">
         <v>126</v>
       </c>
       <c r="B4" s="106" t="s">
@@ -26828,14 +26831,14 @@
         <v>213.75</v>
       </c>
       <c r="F4" s="106">
-        <v>800.62</v>
+        <v>106.88</v>
       </c>
       <c r="G4" s="106" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="30">
-      <c r="A5" s="109" t="s">
+      <c r="A5" s="110" t="s">
         <v>128</v>
       </c>
       <c r="B5" s="106" t="s">
@@ -26851,11 +26854,11 @@
         <v>1596.82</v>
       </c>
       <c r="F5" s="106">
-        <v>4400.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="30">
-      <c r="A6" s="109" t="s">
+      <c r="A6" s="110" t="s">
         <v>130</v>
       </c>
       <c r="B6" s="106" t="s">
@@ -26871,14 +26874,14 @@
         <v>410.0</v>
       </c>
       <c r="F6" s="106">
-        <v>1543.33</v>
+        <v>205.0</v>
       </c>
       <c r="G6" s="106" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="30">
-      <c r="A7" s="109" t="s">
+      <c r="A7" s="110" t="s">
         <v>132</v>
       </c>
       <c r="B7" s="106" t="s">
@@ -26894,14 +26897,14 @@
         <v>0.0</v>
       </c>
       <c r="F7" s="106">
-        <v>317.29</v>
+        <v>0.0</v>
       </c>
       <c r="G7" s="106" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="30">
-      <c r="A8" s="109" t="s">
+      <c r="A8" s="110" t="s">
         <v>134</v>
       </c>
       <c r="B8" s="106" t="s">
@@ -26917,14 +26920,14 @@
         <v>1170.83</v>
       </c>
       <c r="F8" s="106">
-        <v>4398.33</v>
+        <v>585.42</v>
       </c>
       <c r="G8" s="106" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="30">
-      <c r="A9" s="109" t="s">
+      <c r="A9" s="110" t="s">
         <v>136</v>
       </c>
       <c r="B9" s="106" t="s">
@@ -26940,14 +26943,14 @@
         <v>100.0</v>
       </c>
       <c r="F9" s="106">
-        <v>400.0</v>
+        <v>50.0</v>
       </c>
       <c r="G9" s="106" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="30">
-      <c r="A10" s="109" t="s">
+      <c r="A10" s="110" t="s">
         <v>137</v>
       </c>
       <c r="B10" s="106" t="s">
@@ -26963,14 +26966,14 @@
         <v>950.0</v>
       </c>
       <c r="F10" s="106">
-        <v>3799.17</v>
+        <v>475.0</v>
       </c>
       <c r="G10" s="106" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="30">
-      <c r="A11" s="109" t="s">
+      <c r="A11" s="110" t="s">
         <v>168</v>
       </c>
       <c r="B11" s="106" t="s">
@@ -26986,14 +26989,14 @@
         <v>866.67</v>
       </c>
       <c r="F11" s="106">
-        <v>3441.67</v>
+        <v>433.33</v>
       </c>
       <c r="G11" s="106" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="30">
-      <c r="A12" s="109" t="s">
+      <c r="A12" s="110" t="s">
         <v>169</v>
       </c>
       <c r="B12" s="106" t="s">
@@ -27009,14 +27012,14 @@
         <v>1000.0</v>
       </c>
       <c r="F12" s="106">
-        <v>3000.0</v>
+        <v>500.0</v>
       </c>
       <c r="G12" s="106" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="30">
-      <c r="A13" s="109" t="s">
+      <c r="A13" s="110" t="s">
         <v>171</v>
       </c>
       <c r="B13" s="106" t="s">
@@ -27032,14 +27035,14 @@
         <v>733.0</v>
       </c>
       <c r="F13" s="106">
-        <v>2199.0</v>
+        <v>366.5</v>
       </c>
       <c r="G13" s="106" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="30">
-      <c r="A14" s="109" t="s">
+      <c r="A14" s="110" t="s">
         <v>174</v>
       </c>
       <c r="B14" s="106" t="s">
@@ -27055,7 +27058,7 @@
         <v>150.0</v>
       </c>
       <c r="F14" s="106">
-        <v>300.0</v>
+        <v>75.0</v>
       </c>
       <c r="G14" s="106" t="s">
         <v>123</v>
@@ -32199,7 +32202,7 @@
       </c>
     </row>
     <row r="3" spans="1:7" ht="30">
-      <c r="A3" s="109" t="s">
+      <c r="A3" s="110" t="s">
         <v>124</v>
       </c>
       <c r="B3" s="106" t="s">
@@ -32222,7 +32225,7 @@
       </c>
     </row>
     <row r="4" spans="1:7" ht="30">
-      <c r="A4" s="109" t="s">
+      <c r="A4" s="110" t="s">
         <v>126</v>
       </c>
       <c r="B4" s="106" t="s">
@@ -32245,7 +32248,7 @@
       </c>
     </row>
     <row r="5" spans="1:6" ht="30">
-      <c r="A5" s="109" t="s">
+      <c r="A5" s="110" t="s">
         <v>128</v>
       </c>
       <c r="B5" s="106" t="s">
@@ -32265,7 +32268,7 @@
       </c>
     </row>
     <row r="6" spans="1:7" ht="30">
-      <c r="A6" s="109" t="s">
+      <c r="A6" s="110" t="s">
         <v>130</v>
       </c>
       <c r="B6" s="106" t="s">
@@ -32288,7 +32291,7 @@
       </c>
     </row>
     <row r="7" spans="1:7" ht="30">
-      <c r="A7" s="109" t="s">
+      <c r="A7" s="110" t="s">
         <v>132</v>
       </c>
       <c r="B7" s="106" t="s">
@@ -32311,7 +32314,7 @@
       </c>
     </row>
     <row r="8" spans="1:7" ht="30">
-      <c r="A8" s="109" t="s">
+      <c r="A8" s="110" t="s">
         <v>134</v>
       </c>
       <c r="B8" s="106" t="s">
@@ -32334,7 +32337,7 @@
       </c>
     </row>
     <row r="9" spans="1:7" ht="30">
-      <c r="A9" s="109" t="s">
+      <c r="A9" s="110" t="s">
         <v>136</v>
       </c>
       <c r="B9" s="106" t="s">
@@ -32357,7 +32360,7 @@
       </c>
     </row>
     <row r="10" spans="1:7" ht="30">
-      <c r="A10" s="109" t="s">
+      <c r="A10" s="110" t="s">
         <v>137</v>
       </c>
       <c r="B10" s="106" t="s">
@@ -32442,14 +32445,14 @@
         <v>0.0</v>
       </c>
       <c r="F2" s="106">
-        <v>1319.5</v>
+        <v>0.0</v>
       </c>
       <c r="G2" s="106" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="30">
-      <c r="A3" s="109" t="s">
+      <c r="A3" s="110" t="s">
         <v>124</v>
       </c>
       <c r="B3" s="106" t="s">
@@ -32465,14 +32468,14 @@
         <v>710.0</v>
       </c>
       <c r="F3" s="106">
-        <v>3130.0</v>
+        <v>355.0</v>
       </c>
       <c r="G3" s="106" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="30">
-      <c r="A4" s="109" t="s">
+      <c r="A4" s="110" t="s">
         <v>126</v>
       </c>
       <c r="B4" s="106" t="s">
@@ -32488,14 +32491,14 @@
         <v>213.75</v>
       </c>
       <c r="F4" s="106">
-        <v>907.5</v>
+        <v>106.88</v>
       </c>
       <c r="G4" s="106" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="30">
-      <c r="A5" s="109" t="s">
+      <c r="A5" s="110" t="s">
         <v>128</v>
       </c>
       <c r="B5" s="106" t="s">
@@ -32511,11 +32514,11 @@
         <v>1596.82</v>
       </c>
       <c r="F5" s="106">
-        <v>4400.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="30">
-      <c r="A6" s="109" t="s">
+      <c r="A6" s="110" t="s">
         <v>130</v>
       </c>
       <c r="B6" s="106" t="s">
@@ -32531,14 +32534,14 @@
         <v>410.0</v>
       </c>
       <c r="F6" s="106">
-        <v>1748.33</v>
+        <v>205.0</v>
       </c>
       <c r="G6" s="106" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="30">
-      <c r="A7" s="109" t="s">
+      <c r="A7" s="110" t="s">
         <v>132</v>
       </c>
       <c r="B7" s="106" t="s">
@@ -32554,14 +32557,14 @@
         <v>0.0</v>
       </c>
       <c r="F7" s="106">
-        <v>317.29</v>
+        <v>0.0</v>
       </c>
       <c r="G7" s="106" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="30">
-      <c r="A8" s="109" t="s">
+      <c r="A8" s="110" t="s">
         <v>134</v>
       </c>
       <c r="B8" s="106" t="s">
@@ -32577,14 +32580,14 @@
         <v>1170.83</v>
       </c>
       <c r="F8" s="106">
-        <v>4400.0</v>
+        <v>0.0</v>
       </c>
       <c r="G8" s="106" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="30">
-      <c r="A9" s="109" t="s">
+      <c r="A9" s="110" t="s">
         <v>136</v>
       </c>
       <c r="B9" s="106" t="s">
@@ -32600,14 +32603,14 @@
         <v>100.0</v>
       </c>
       <c r="F9" s="106">
-        <v>450.0</v>
+        <v>50.0</v>
       </c>
       <c r="G9" s="106" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="30">
-      <c r="A10" s="109" t="s">
+      <c r="A10" s="110" t="s">
         <v>137</v>
       </c>
       <c r="B10" s="106" t="s">
@@ -32623,14 +32626,14 @@
         <v>950.0</v>
       </c>
       <c r="F10" s="106">
-        <v>4274.17</v>
+        <v>475.0</v>
       </c>
       <c r="G10" s="106" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="30">
-      <c r="A11" s="109" t="s">
+      <c r="A11" s="110" t="s">
         <v>168</v>
       </c>
       <c r="B11" s="106" t="s">
@@ -32646,14 +32649,14 @@
         <v>866.67</v>
       </c>
       <c r="F11" s="106">
-        <v>4400.0</v>
+        <v>108.35</v>
       </c>
       <c r="G11" s="106" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="30">
-      <c r="A12" s="109" t="s">
+      <c r="A12" s="110" t="s">
         <v>169</v>
       </c>
       <c r="B12" s="106" t="s">
@@ -32669,14 +32672,14 @@
         <v>1000.0</v>
       </c>
       <c r="F12" s="106">
-        <v>3500.0</v>
+        <v>500.0</v>
       </c>
       <c r="G12" s="106" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="30">
-      <c r="A13" s="109" t="s">
+      <c r="A13" s="110" t="s">
         <v>171</v>
       </c>
       <c r="B13" s="106" t="s">
@@ -32692,14 +32695,14 @@
         <v>733.0</v>
       </c>
       <c r="F13" s="106">
-        <v>2565.5</v>
+        <v>366.5</v>
       </c>
       <c r="G13" s="106" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="30">
-      <c r="A14" s="109" t="s">
+      <c r="A14" s="110" t="s">
         <v>174</v>
       </c>
       <c r="B14" s="106" t="s">
@@ -32715,7 +32718,7 @@
         <v>150.0</v>
       </c>
       <c r="F14" s="106">
-        <v>375.0</v>
+        <v>75.0</v>
       </c>
       <c r="G14" s="106" t="s">
         <v>123</v>
@@ -38042,14 +38045,14 @@
         <v>0.0</v>
       </c>
       <c r="F2" s="106">
-        <v>451.79</v>
+        <v>0.0</v>
       </c>
       <c r="G2" s="106" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="30">
-      <c r="A3" s="109" t="s">
+      <c r="A3" s="110" t="s">
         <v>124</v>
       </c>
       <c r="B3" s="106" t="s">
@@ -38065,14 +38068,14 @@
         <v>710.0</v>
       </c>
       <c r="F3" s="106">
-        <v>1000.0</v>
+        <v>355.0</v>
       </c>
       <c r="G3" s="106" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="30">
-      <c r="A4" s="109" t="s">
+      <c r="A4" s="110" t="s">
         <v>126</v>
       </c>
       <c r="B4" s="106" t="s">
@@ -38088,14 +38091,14 @@
         <v>213.75</v>
       </c>
       <c r="F4" s="106">
-        <v>266.25</v>
+        <v>106.88</v>
       </c>
       <c r="G4" s="106" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="30">
-      <c r="A5" s="109" t="s">
+      <c r="A5" s="110" t="s">
         <v>128</v>
       </c>
       <c r="B5" s="106" t="s">
@@ -38111,11 +38114,11 @@
         <v>1596.82</v>
       </c>
       <c r="F5" s="106">
-        <v>2437.5</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="30">
-      <c r="A6" s="109" t="s">
+      <c r="A6" s="110" t="s">
         <v>130</v>
       </c>
       <c r="B6" s="106" t="s">
@@ -38131,14 +38134,14 @@
         <v>410.0</v>
       </c>
       <c r="F6" s="106">
-        <v>518.33</v>
+        <v>205.0</v>
       </c>
       <c r="G6" s="106" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="30">
-      <c r="A7" s="109" t="s">
+      <c r="A7" s="110" t="s">
         <v>132</v>
       </c>
       <c r="B7" s="106" t="s">
@@ -38154,14 +38157,14 @@
         <v>0.0</v>
       </c>
       <c r="F7" s="106">
-        <v>317.29</v>
+        <v>0.0</v>
       </c>
       <c r="G7" s="106" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="30">
-      <c r="A8" s="109" t="s">
+      <c r="A8" s="110" t="s">
         <v>134</v>
       </c>
       <c r="B8" s="106" t="s">
@@ -38177,14 +38180,14 @@
         <v>1170.83</v>
       </c>
       <c r="F8" s="106">
-        <v>1471.25</v>
+        <v>0.0</v>
       </c>
       <c r="G8" s="106" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="30">
-      <c r="A9" s="109" t="s">
+      <c r="A9" s="110" t="s">
         <v>136</v>
       </c>
       <c r="B9" s="106" t="s">
@@ -38200,14 +38203,14 @@
         <v>100.0</v>
       </c>
       <c r="F9" s="106">
-        <v>150.0</v>
+        <v>50.0</v>
       </c>
       <c r="G9" s="106" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="30">
-      <c r="A10" s="109" t="s">
+      <c r="A10" s="110" t="s">
         <v>137</v>
       </c>
       <c r="B10" s="106" t="s">
@@ -38223,14 +38226,14 @@
         <v>950.0</v>
       </c>
       <c r="F10" s="106">
-        <v>1424.17</v>
+        <v>125.83</v>
       </c>
       <c r="G10" s="106" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="30">
-      <c r="A11" s="109" t="s">
+      <c r="A11" s="110" t="s">
         <v>168</v>
       </c>
       <c r="B11" s="106" t="s">
@@ -38246,14 +38249,14 @@
         <v>866.67</v>
       </c>
       <c r="F11" s="106">
-        <v>1275.0</v>
+        <v>0.0</v>
       </c>
       <c r="G11" s="106" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="30">
-      <c r="A12" s="109" t="s">
+      <c r="A12" s="110" t="s">
         <v>169</v>
       </c>
       <c r="B12" s="106" t="s">
@@ -38276,7 +38279,7 @@
       </c>
     </row>
     <row r="13" spans="1:7" ht="30">
-      <c r="A13" s="109" t="s">
+      <c r="A13" s="110" t="s">
         <v>171</v>
       </c>
       <c r="B13" s="106" t="s">
@@ -38299,7 +38302,7 @@
       </c>
     </row>
     <row r="14" spans="1:7" ht="30">
-      <c r="A14" s="109" t="s">
+      <c r="A14" s="110" t="s">
         <v>174</v>
       </c>
       <c r="B14" s="106" t="s">
@@ -38315,14 +38318,14 @@
         <v>150.0</v>
       </c>
       <c r="F14" s="106">
-        <v>366.5</v>
+        <v>75.0</v>
       </c>
       <c r="G14" s="106" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="30">
-      <c r="A15" s="109" t="s">
+      <c r="A15" s="110" t="s">
         <v>173</v>
       </c>
       <c r="B15" s="106" t="s">
@@ -38338,11 +38341,11 @@
         <v>325.0</v>
       </c>
       <c r="F15" s="106">
-        <v>0.0</v>
+        <v>162.5</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="30">
-      <c r="A16" s="109" t="s">
+      <c r="A16" s="110" t="s">
         <v>173</v>
       </c>
       <c r="B16" s="106" t="s">
@@ -38358,11 +38361,11 @@
         <v>97.5</v>
       </c>
       <c r="F16" s="106">
-        <v>0.0</v>
+        <v>48.75</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="30">
-      <c r="A17" s="109" t="s">
+      <c r="A17" s="110" t="s">
         <v>173</v>
       </c>
       <c r="B17" s="106" t="s">
@@ -38378,7 +38381,7 @@
         <v>7331.26</v>
       </c>
       <c r="F17" s="106">
-        <v>0.0</v>
+        <v>3665.63</v>
       </c>
     </row>
   </sheetData>
@@ -43654,31 +43657,31 @@
       </c>
     </row>
     <row r="12" spans="1:9" ht="15">
-      <c r="A12" s="110" t="s">
+      <c r="A12" s="111" t="s">
         <v>143</v>
       </c>
-      <c r="B12" s="110" t="s">
+      <c r="B12" s="111" t="s">
         <v>144</v>
       </c>
-      <c r="C12" s="110" t="s">
+      <c r="C12" s="111" t="s">
         <v>120</v>
       </c>
-      <c r="D12" s="110" t="s">
+      <c r="D12" s="111" t="s">
         <v>145</v>
       </c>
-      <c r="E12" s="110" t="s">
+      <c r="E12" s="111" t="s">
         <v>146</v>
       </c>
-      <c r="F12" s="110" t="s">
+      <c r="F12" s="111" t="s">
         <v>147</v>
       </c>
-      <c r="G12" s="110" t="s">
+      <c r="G12" s="111" t="s">
         <v>148</v>
       </c>
-      <c r="H12" s="110" t="s">
+      <c r="H12" s="111" t="s">
         <v>149</v>
       </c>
-      <c r="I12" s="110" t="s">
+      <c r="I12" s="111" t="s">
         <v>150</v>
       </c>
     </row>
@@ -47590,14 +47593,14 @@
         <v>310.92</v>
       </c>
       <c r="F2" s="106">
-        <v>296.33</v>
+        <v>155.46</v>
       </c>
       <c r="G2" s="106" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="30">
-      <c r="A3" s="109" t="s">
+      <c r="A3" s="110" t="s">
         <v>124</v>
       </c>
       <c r="B3" s="106" t="s">
@@ -47613,14 +47616,14 @@
         <v>666.67</v>
       </c>
       <c r="F3" s="106">
-        <v>666.67</v>
+        <v>333.33</v>
       </c>
       <c r="G3" s="106" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="30">
-      <c r="A4" s="109" t="s">
+      <c r="A4" s="110" t="s">
         <v>126</v>
       </c>
       <c r="B4" s="106" t="s">
@@ -47636,14 +47639,14 @@
         <v>177.5</v>
       </c>
       <c r="F4" s="106">
-        <v>177.5</v>
+        <v>88.75</v>
       </c>
       <c r="G4" s="106" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="30">
-      <c r="A5" s="109" t="s">
+      <c r="A5" s="110" t="s">
         <v>128</v>
       </c>
       <c r="B5" s="106" t="s">
@@ -47659,11 +47662,11 @@
         <v>1625.0</v>
       </c>
       <c r="F5" s="106">
-        <v>1625.0</v>
+        <v>812.5</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="30">
-      <c r="A6" s="109" t="s">
+      <c r="A6" s="110" t="s">
         <v>130</v>
       </c>
       <c r="B6" s="106" t="s">
@@ -47679,14 +47682,14 @@
         <v>355.0</v>
       </c>
       <c r="F6" s="106">
-        <v>340.83</v>
+        <v>177.5</v>
       </c>
       <c r="G6" s="106" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="30">
-      <c r="A7" s="109" t="s">
+      <c r="A7" s="110" t="s">
         <v>132</v>
       </c>
       <c r="B7" s="106" t="s">
@@ -47702,14 +47705,14 @@
         <v>214.58</v>
       </c>
       <c r="F7" s="106">
-        <v>210.0</v>
+        <v>107.29</v>
       </c>
       <c r="G7" s="106" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="30">
-      <c r="A8" s="109" t="s">
+      <c r="A8" s="110" t="s">
         <v>134</v>
       </c>
       <c r="B8" s="106" t="s">
@@ -47725,14 +47728,14 @@
         <v>1010.83</v>
       </c>
       <c r="F8" s="106">
-        <v>965.83</v>
+        <v>505.42</v>
       </c>
       <c r="G8" s="106" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="30">
-      <c r="A9" s="109" t="s">
+      <c r="A9" s="110" t="s">
         <v>136</v>
       </c>
       <c r="B9" s="106" t="s">
@@ -47748,14 +47751,14 @@
         <v>100.0</v>
       </c>
       <c r="F9" s="106">
-        <v>100.0</v>
+        <v>50.0</v>
       </c>
       <c r="G9" s="106" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="30">
-      <c r="A10" s="109" t="s">
+      <c r="A10" s="110" t="s">
         <v>137</v>
       </c>
       <c r="B10" s="106" t="s">
@@ -47771,7 +47774,7 @@
         <v>1010.83</v>
       </c>
       <c r="F10" s="106">
-        <v>965.83</v>
+        <v>505.42</v>
       </c>
       <c r="G10" s="106" t="s">
         <v>123</v>
@@ -53154,14 +53157,14 @@
         <v>310.92</v>
       </c>
       <c r="F2" s="106">
-        <v>140.88</v>
+        <v>155.46</v>
       </c>
       <c r="G2" s="106" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="30">
-      <c r="A3" s="109" t="s">
+      <c r="A3" s="110" t="s">
         <v>124</v>
       </c>
       <c r="B3" s="106" t="s">
@@ -53184,7 +53187,7 @@
       </c>
     </row>
     <row r="4" spans="1:7" ht="30">
-      <c r="A4" s="109" t="s">
+      <c r="A4" s="110" t="s">
         <v>126</v>
       </c>
       <c r="B4" s="106" t="s">
@@ -53207,7 +53210,7 @@
       </c>
     </row>
     <row r="5" spans="1:6" ht="30">
-      <c r="A5" s="109" t="s">
+      <c r="A5" s="110" t="s">
         <v>128</v>
       </c>
       <c r="B5" s="106" t="s">
@@ -53227,7 +53230,7 @@
       </c>
     </row>
     <row r="6" spans="1:7" ht="30">
-      <c r="A6" s="109" t="s">
+      <c r="A6" s="110" t="s">
         <v>130</v>
       </c>
       <c r="B6" s="106" t="s">
@@ -53243,14 +53246,14 @@
         <v>355.0</v>
       </c>
       <c r="F6" s="106">
-        <v>163.33</v>
+        <v>177.5</v>
       </c>
       <c r="G6" s="106" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="30">
-      <c r="A7" s="109" t="s">
+      <c r="A7" s="110" t="s">
         <v>132</v>
       </c>
       <c r="B7" s="106" t="s">
@@ -53266,14 +53269,14 @@
         <v>214.58</v>
       </c>
       <c r="F7" s="106">
-        <v>102.71</v>
+        <v>107.29</v>
       </c>
       <c r="G7" s="106" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="30">
-      <c r="A8" s="109" t="s">
+      <c r="A8" s="110" t="s">
         <v>134</v>
       </c>
       <c r="B8" s="106" t="s">
@@ -53289,14 +53292,14 @@
         <v>1010.83</v>
       </c>
       <c r="F8" s="106">
-        <v>460.42</v>
+        <v>505.42</v>
       </c>
       <c r="G8" s="106" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="30">
-      <c r="A9" s="109" t="s">
+      <c r="A9" s="110" t="s">
         <v>136</v>
       </c>
       <c r="B9" s="106" t="s">
@@ -53319,7 +53322,7 @@
       </c>
     </row>
     <row r="10" spans="1:7" ht="30">
-      <c r="A10" s="109" t="s">
+      <c r="A10" s="110" t="s">
         <v>137</v>
       </c>
       <c r="B10" s="106" t="s">
@@ -53335,14 +53338,14 @@
         <v>916.67</v>
       </c>
       <c r="F10" s="106">
-        <v>460.42</v>
+        <v>458.33</v>
       </c>
       <c r="G10" s="106" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="30">
-      <c r="A11" s="109" t="s">
+      <c r="A11" s="110" t="s">
         <v>168</v>
       </c>
       <c r="B11" s="106" t="s">
@@ -53358,14 +53361,14 @@
         <v>4250.0</v>
       </c>
       <c r="F11" s="106">
-        <v>0.0</v>
+        <v>2125.0</v>
       </c>
       <c r="G11" s="106" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="30">
-      <c r="A12" s="109" t="s">
+      <c r="A12" s="110" t="s">
         <v>169</v>
       </c>
       <c r="B12" s="106" t="s">
@@ -53381,14 +53384,14 @@
         <v>1000.0</v>
       </c>
       <c r="F12" s="106">
-        <v>0.0</v>
+        <v>500.0</v>
       </c>
       <c r="G12" s="106" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="30">
-      <c r="A13" s="109" t="s">
+      <c r="A13" s="110" t="s">
         <v>171</v>
       </c>
       <c r="B13" s="106" t="s">
@@ -53404,7 +53407,7 @@
         <v>733.0</v>
       </c>
       <c r="F13" s="106">
-        <v>0.0</v>
+        <v>366.5</v>
       </c>
       <c r="G13" s="106" t="s">
         <v>123</v>
